--- a/File.xlsx
+++ b/File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshuaBailey\Workspace\Harvest-X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC079591-0123-4348-BB58-428058135035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A29A5C9-6DFA-4AFF-A428-E63378E2DC87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{02D7A580-38A2-4028-9C38-675B24E8D9E4}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="220">
   <si>
     <t>B</t>
   </si>
@@ -41,31 +38,658 @@
     <t>C</t>
   </si>
   <si>
-    <t>FooBar1</t>
-  </si>
-  <si>
-    <t>FooBar2</t>
-  </si>
-  <si>
-    <t>FooBar3</t>
-  </si>
-  <si>
-    <t>FooBar4</t>
-  </si>
-  <si>
-    <t>FooBar5</t>
-  </si>
-  <si>
-    <t>FooBar6</t>
-  </si>
-  <si>
-    <t>FooBar7</t>
-  </si>
-  <si>
-    <t>FooBar8</t>
-  </si>
-  <si>
-    <t>FooBar9</t>
+    <t>9001 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9003 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9004 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9005 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9006 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9007 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9008 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9009 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9010 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9011 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9012 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9013 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9014 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9015 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9016 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9017 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9019 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9020 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9021 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>9022 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9023 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9024 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9025 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9026 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9027 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9028 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9029 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9030 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9031 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9032 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9033 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9035 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9036 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9037 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9038 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9039 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9040 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9042 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9043 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9044 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9045 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9047 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9049 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9050 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9052 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9053 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9054 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9055 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9056 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9057 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9058 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9059 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9060 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9061 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9062 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9063 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9064 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9067 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9068 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9069 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9070 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9071 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9073 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9078 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9079 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9080 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9081 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9082 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9085 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9086 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9089 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9092 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9093 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9097 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9101 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9103 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9106 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9109 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9117 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9118 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9119 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9124 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9127 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9130 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9131 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9133 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9136 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9137 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9138 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9140 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9142 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9144 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9145 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9147 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9148 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9150 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9153 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9154 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9155 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9156 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9157 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9158 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9159 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9160 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9161 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9162 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9163 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9164 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9165 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9166 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9167 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9168 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9169 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9170 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9171 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9172 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9173 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9174 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9175 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9176 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9177 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9178 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9179 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9180 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9181 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9182 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9183 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9184 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9185 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9186 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9187 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9188 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9189 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9190 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9191 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9192 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9193 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9194 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9195 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9196 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9197 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9198 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9199 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9200 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9201 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9202 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9203 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9204 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9205 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9206 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9207 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9208 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9209 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9210 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9211 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9212 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9213 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9214 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9215 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9216 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9217 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9218 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9219 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9220 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9221 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9222 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9223 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9224 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9225 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9226 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9227 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9228 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9229 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9230 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9231 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9232 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9233 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9234 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9235 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9236 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9237 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9238 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9239 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9240 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9241 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9242 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9243 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9244 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9245 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9246 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9247 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9248 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9249 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9250 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9251 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9252 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9253 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9254 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9255 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9256 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9257 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9258 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9259 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9260 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9261 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9262 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9263 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9264 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9265 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9266 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9267 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9268 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9269 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9270 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9271 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9272 Woodhaven Way</t>
+  </si>
+  <si>
+    <t>9273 Woodhaven Way</t>
   </si>
 </sst>
 </file>
@@ -81,12 +705,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,13 +731,155 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -418,30 +1190,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1149A3-76FA-4B80-A7B8-E9B54D681772}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
+        <v>24176382</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -449,94 +1224,2440 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="A3">
+        <v>35149408</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
+      <c r="A4">
+        <v>23990006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
+      <c r="A5">
+        <v>24178870</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
+      <c r="A6">
+        <v>33110972</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
+      <c r="A7">
+        <v>19161166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="A8">
+        <v>24184300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>23</v>
+      <c r="A9">
+        <v>14080170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>26</v>
+      <c r="A10">
+        <v>35149688</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>21911838</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>24172892</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>21737482</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>24180814</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>32826952</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>33358984</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>34873778</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>20056942</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>13362004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>24173538</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>13468654</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>18083922</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>17711160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24178348</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>35149554</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>35017316</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25247948</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>9497784</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>33790700</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>34647666</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>34650020</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>18946998</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>24175886</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>16830662</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>33880584</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35182260</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35182270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>24178794</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>24184502</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>12404356</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>24176626</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>33188748</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>35172754</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>24172420</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>35203756</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>23383672</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>16978658</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>24182572</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>23743754</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>34937438</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>35204170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>34413216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>23572320</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>12405372</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>35214520</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>22196576</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>24182374</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>24172012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>24183700</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>24175174</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>24181260</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>35167850</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>17691620</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>24176772</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>24172736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>33979130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>24042262</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>33357310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>33333436</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>35287232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>24170128</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>32148190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>21951896</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>19198536</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>22096704</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>34775990</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>24177618</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>24173698</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>24173132</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>24179662</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>35393192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>33427064</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>33742996</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>23817212</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>24174106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>24179316</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>16834626</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>24174244</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>14197736</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>34680624</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>33720088</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>18685844</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>23487944</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>23816890</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>16830868</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>33524160</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>32800506</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>24183758</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>24177480</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>7895608</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>34423558</v>
+      </c>
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>23573594</v>
+      </c>
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>23528</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>40649812</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>39991306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>40001248</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>40289923</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>39970653</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>39976443</v>
+      </c>
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>40158512</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>39968429</v>
+      </c>
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>39999489</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>41088607</v>
+      </c>
+      <c r="B114" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>39976610</v>
+      </c>
+      <c r="B115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>39970268</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>40803654</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>39968643</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>39959758</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>40725607</v>
+      </c>
+      <c r="B120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>39978175</v>
+      </c>
+      <c r="B121" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>39965826</v>
+      </c>
+      <c r="B122" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>39965436</v>
+      </c>
+      <c r="B123" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>40277606</v>
+      </c>
+      <c r="B124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>39963343</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>40103574</v>
+      </c>
+      <c r="B126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>39960585</v>
+      </c>
+      <c r="B127" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>39959866</v>
+      </c>
+      <c r="B128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>40216736</v>
+      </c>
+      <c r="B129" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>39994735</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>40103049</v>
+      </c>
+      <c r="B131" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>40832550</v>
+      </c>
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>40923582</v>
+      </c>
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>39964150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>40040149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>40040351</v>
+      </c>
+      <c r="B136" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>39977181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>39960472</v>
+      </c>
+      <c r="B138" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>39993788</v>
+      </c>
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>40151350</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>40103207</v>
+      </c>
+      <c r="B141" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>39960549</v>
+      </c>
+      <c r="B142" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>39973027</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>39960444</v>
+      </c>
+      <c r="B144" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>40033012</v>
+      </c>
+      <c r="B145" t="s">
+        <v>142</v>
+      </c>
+      <c r="C145">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>39960643</v>
+      </c>
+      <c r="B146" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>39965883</v>
+      </c>
+      <c r="B147" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>39959775</v>
+      </c>
+      <c r="B148" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>39959941</v>
+      </c>
+      <c r="B149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>40722506</v>
+      </c>
+      <c r="B150" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>39992104</v>
+      </c>
+      <c r="B151" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>41060471</v>
+      </c>
+      <c r="B152" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>39977523</v>
+      </c>
+      <c r="B153" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>40222557</v>
+      </c>
+      <c r="B154" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>40021146</v>
+      </c>
+      <c r="B155" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>40408245</v>
+      </c>
+      <c r="B156" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>39970282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>39969112</v>
+      </c>
+      <c r="B158" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>39976139</v>
+      </c>
+      <c r="B159" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>40275582</v>
+      </c>
+      <c r="B160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>40373345</v>
+      </c>
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>41004280</v>
+      </c>
+      <c r="B162" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>39959834</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>39960166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>39962436</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>40593978</v>
+      </c>
+      <c r="B166" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>39959784</v>
+      </c>
+      <c r="B167" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>39969498</v>
+      </c>
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>39964918</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>39959765</v>
+      </c>
+      <c r="B170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>39970468</v>
+      </c>
+      <c r="B171" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>40833266</v>
+      </c>
+      <c r="B172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>39960000</v>
+      </c>
+      <c r="B173" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>39964923</v>
+      </c>
+      <c r="B174" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>39976911</v>
+      </c>
+      <c r="B175" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>39963394</v>
+      </c>
+      <c r="B176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C176">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>40148291</v>
+      </c>
+      <c r="B177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>40798725</v>
+      </c>
+      <c r="B178" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>39971194</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>40904798</v>
+      </c>
+      <c r="B180" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>39967527</v>
+      </c>
+      <c r="B181" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>39966045</v>
+      </c>
+      <c r="B182" t="s">
+        <v>179</v>
+      </c>
+      <c r="C182">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>40188667</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>39976489</v>
+      </c>
+      <c r="B184" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>39976174</v>
+      </c>
+      <c r="B185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>39985823</v>
+      </c>
+      <c r="B186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>39973656</v>
+      </c>
+      <c r="B187" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>39959756</v>
+      </c>
+      <c r="B188" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>39970170</v>
+      </c>
+      <c r="B189" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>39976310</v>
+      </c>
+      <c r="B190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>40103625</v>
+      </c>
+      <c r="B191" t="s">
+        <v>188</v>
+      </c>
+      <c r="C191">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>39988270</v>
+      </c>
+      <c r="B192" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>39966534</v>
+      </c>
+      <c r="B193" t="s">
+        <v>190</v>
+      </c>
+      <c r="C193">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>39975732</v>
+      </c>
+      <c r="B194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>39976282</v>
+      </c>
+      <c r="B195" t="s">
+        <v>192</v>
+      </c>
+      <c r="C195">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>40567879</v>
+      </c>
+      <c r="B196" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>40277300</v>
+      </c>
+      <c r="B197" t="s">
+        <v>194</v>
+      </c>
+      <c r="C197">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>40052214</v>
+      </c>
+      <c r="B198" t="s">
+        <v>195</v>
+      </c>
+      <c r="C198">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>39967968</v>
+      </c>
+      <c r="B199" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>40041460</v>
+      </c>
+      <c r="B200" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>39983001</v>
+      </c>
+      <c r="B201" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>40048171</v>
+      </c>
+      <c r="B202" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>40685205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>200</v>
+      </c>
+      <c r="C203">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>40422463</v>
+      </c>
+      <c r="B204" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>39963071</v>
+      </c>
+      <c r="B205" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>39977407</v>
+      </c>
+      <c r="B206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>39963091</v>
+      </c>
+      <c r="B207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>39974540</v>
+      </c>
+      <c r="B208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>39964799</v>
+      </c>
+      <c r="B209" t="s">
+        <v>206</v>
+      </c>
+      <c r="C209">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>40625288</v>
+      </c>
+      <c r="B210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>41054306</v>
+      </c>
+      <c r="B211" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>39962561</v>
+      </c>
+      <c r="B212" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>39959786</v>
+      </c>
+      <c r="B213" t="s">
+        <v>210</v>
+      </c>
+      <c r="C213">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>39970860</v>
+      </c>
+      <c r="B214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>40133863</v>
+      </c>
+      <c r="B215" t="s">
+        <v>212</v>
+      </c>
+      <c r="C215">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>40020766</v>
+      </c>
+      <c r="B216" t="s">
+        <v>213</v>
+      </c>
+      <c r="C216">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>39959820</v>
+      </c>
+      <c r="B217" t="s">
+        <v>214</v>
+      </c>
+      <c r="C217">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>39976416</v>
+      </c>
+      <c r="B218" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>39982066</v>
+      </c>
+      <c r="B219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>39960070</v>
+      </c>
+      <c r="B220" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>39962957</v>
+      </c>
+      <c r="B221" t="s">
+        <v>218</v>
+      </c>
+      <c r="C221">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>39977328</v>
+      </c>
+      <c r="B222" t="s">
+        <v>219</v>
+      </c>
+      <c r="C222">
+        <v>819</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A104 A223:A1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A222">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>